--- a/주간보고서/주간보고서_0725_박상도.xlsx
+++ b/주간보고서/주간보고서_0725_박상도.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,6 +55,12 @@
 3. 프로젝트 분석서/명세서(ver0.2) 작성 완료
 4. 화면설계서(ver0.1) 작성 완료
 5. 메인 페이지 개발 중(70% 완료)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 메인 페이지 개발
+2. 최적 경로 안내 페이지 개발
+3. 도로 통행시간 데이터 수집</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -463,7 +469,7 @@
   <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -528,7 +534,9 @@
       <c r="C6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="E6" s="8"/>
     </row>
   </sheetData>
